--- a/AZUCENA.xlsx
+++ b/AZUCENA.xlsx
@@ -16,26 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Activities</t>
-  </si>
-  <si>
-    <t>Date Start</t>
-  </si>
-  <si>
-    <t>Date End</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Research about proposals</t>
   </si>
   <si>
-    <t>Time Start</t>
-  </si>
-  <si>
-    <t>Time End</t>
-  </si>
-  <si>
     <t>Exploring the environment of VB</t>
   </si>
   <si>
@@ -46,6 +31,60 @@
   </si>
   <si>
     <t>Researching about SMS notification method</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Date start:</t>
+  </si>
+  <si>
+    <t>Date end:</t>
+  </si>
+  <si>
+    <t>Time start:</t>
+  </si>
+  <si>
+    <t>Time end:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity </t>
+  </si>
+  <si>
+    <t>Assigned to:</t>
+  </si>
+  <si>
+    <t>Grade:</t>
+  </si>
+  <si>
+    <t>Creating  of forms - Login, registrarion, and main menu</t>
+  </si>
+  <si>
+    <t>Miralles Renato</t>
+  </si>
+  <si>
+    <t>Designing of forms - Login, registrarion, and main menu</t>
+  </si>
+  <si>
+    <t>John Earl Azucena</t>
+  </si>
+  <si>
+    <t>Creating database, beginning of coding in login, registration and main menu</t>
+  </si>
+  <si>
+    <t>Irwin Legayo</t>
+  </si>
+  <si>
+    <t>Research and studying about our features, gantt chart</t>
+  </si>
+  <si>
+    <t>Norhana Daksla</t>
+  </si>
+  <si>
+    <t>Also research and studying about the features and also gantt chart</t>
+  </si>
+  <si>
+    <t>Alyssa Nikolei Co</t>
   </si>
 </sst>
 </file>
@@ -61,12 +100,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -89,6 +146,9 @@
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -404,25 +464,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>43713</v>
@@ -439,7 +499,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>43711</v>
@@ -456,7 +516,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>43728</v>
@@ -473,7 +533,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>43730</v>
@@ -490,7 +550,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>43733</v>
@@ -503,6 +563,72 @@
       </c>
       <c r="E6" s="3">
         <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/AZUCENA.xlsx
+++ b/AZUCENA.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,7 +584,7 @@
         <v>14</v>
       </c>
       <c r="C18">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -595,7 +595,7 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -606,7 +606,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -617,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -628,7 +628,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
